--- a/published-data/pge/pge-2020-06-20/pge-regional-naf-latest.xlsx
+++ b/published-data/pge/pge-2020-06-20/pge-regional-naf-latest.xlsx
@@ -400,12 +400,138 @@
     <t>74.00</t>
   </si>
   <si>
+    <t>20.00</t>
+  </si>
+  <si>
+    <t>65.00</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>27.00</t>
+  </si>
+  <si>
+    <t>55.00</t>
+  </si>
+  <si>
+    <t>12.00</t>
+  </si>
+  <si>
+    <t>9.00</t>
+  </si>
+  <si>
+    <t>51.00</t>
+  </si>
+  <si>
+    <t>19.00</t>
+  </si>
+  <si>
+    <t>11.00</t>
+  </si>
+  <si>
+    <t>30.00</t>
+  </si>
+  <si>
+    <t>510.00</t>
+  </si>
+  <si>
+    <t>2184.00</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>4351.00</t>
+  </si>
+  <si>
+    <t>7161.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>4626.00</t>
+  </si>
+  <si>
+    <t>519.00</t>
+  </si>
+  <si>
+    <t>445.00</t>
+  </si>
+  <si>
+    <t>612.00</t>
+  </si>
+  <si>
+    <t>2426.00</t>
+  </si>
+  <si>
+    <t>917.00</t>
+  </si>
+  <si>
+    <t>636.00</t>
+  </si>
+  <si>
+    <t>2512.00</t>
+  </si>
+  <si>
+    <t>592.00</t>
+  </si>
+  <si>
+    <t>2129.00</t>
+  </si>
+  <si>
+    <t>135.00</t>
+  </si>
+  <si>
+    <t>125.00</t>
+  </si>
+  <si>
+    <t>488.00</t>
+  </si>
+  <si>
+    <t>23.00</t>
+  </si>
+  <si>
+    <t>774.00</t>
+  </si>
+  <si>
+    <t>1493.00</t>
+  </si>
+  <si>
+    <t>199.00</t>
+  </si>
+  <si>
+    <t>535.00</t>
+  </si>
+  <si>
+    <t>70.00</t>
+  </si>
+  <si>
+    <t>72.00</t>
+  </si>
+  <si>
+    <t>71.00</t>
+  </si>
+  <si>
+    <t>362.00</t>
+  </si>
+  <si>
+    <t>108.00</t>
+  </si>
+  <si>
+    <t>403.00</t>
+  </si>
+  <si>
+    <t>92.00</t>
+  </si>
+  <si>
+    <t>297.00</t>
+  </si>
+  <si>
     <t>230.00</t>
   </si>
   <si>
-    <t>9.00</t>
-  </si>
-  <si>
     <t>229.00</t>
   </si>
   <si>
@@ -421,9 +547,6 @@
     <t>50.00</t>
   </si>
   <si>
-    <t>55.00</t>
-  </si>
-  <si>
     <t>34.00</t>
   </si>
   <si>
@@ -442,129 +565,6 @@
     <t>41.00</t>
   </si>
   <si>
-    <t>510.00</t>
-  </si>
-  <si>
-    <t>2184.00</t>
-  </si>
-  <si>
-    <t>80.00</t>
-  </si>
-  <si>
-    <t>4351.00</t>
-  </si>
-  <si>
-    <t>7161.00</t>
-  </si>
-  <si>
-    <t>950.00</t>
-  </si>
-  <si>
-    <t>4626.00</t>
-  </si>
-  <si>
-    <t>519.00</t>
-  </si>
-  <si>
-    <t>445.00</t>
-  </si>
-  <si>
-    <t>612.00</t>
-  </si>
-  <si>
-    <t>2426.00</t>
-  </si>
-  <si>
-    <t>917.00</t>
-  </si>
-  <si>
-    <t>636.00</t>
-  </si>
-  <si>
-    <t>2512.00</t>
-  </si>
-  <si>
-    <t>592.00</t>
-  </si>
-  <si>
-    <t>2129.00</t>
-  </si>
-  <si>
-    <t>135.00</t>
-  </si>
-  <si>
-    <t>125.00</t>
-  </si>
-  <si>
-    <t>488.00</t>
-  </si>
-  <si>
-    <t>23.00</t>
-  </si>
-  <si>
-    <t>774.00</t>
-  </si>
-  <si>
-    <t>1493.00</t>
-  </si>
-  <si>
-    <t>199.00</t>
-  </si>
-  <si>
-    <t>535.00</t>
-  </si>
-  <si>
-    <t>70.00</t>
-  </si>
-  <si>
-    <t>72.00</t>
-  </si>
-  <si>
-    <t>71.00</t>
-  </si>
-  <si>
-    <t>362.00</t>
-  </si>
-  <si>
-    <t>108.00</t>
-  </si>
-  <si>
-    <t>403.00</t>
-  </si>
-  <si>
-    <t>92.00</t>
-  </si>
-  <si>
-    <t>297.00</t>
-  </si>
-  <si>
-    <t>20.00</t>
-  </si>
-  <si>
-    <t>65.00</t>
-  </si>
-  <si>
-    <t>75.00</t>
-  </si>
-  <si>
-    <t>27.00</t>
-  </si>
-  <si>
-    <t>12.00</t>
-  </si>
-  <si>
-    <t>51.00</t>
-  </si>
-  <si>
-    <t>19.00</t>
-  </si>
-  <si>
-    <t>11.00</t>
-  </si>
-  <si>
-    <t>30.00</t>
-  </si>
-  <si>
     <t>58.00</t>
   </si>
   <si>
@@ -1255,6 +1255,171 @@
     <t>2961915.00</t>
   </si>
   <si>
+    <t>1230800.00</t>
+  </si>
+  <si>
+    <t>849000.00</t>
+  </si>
+  <si>
+    <t>13498461.00</t>
+  </si>
+  <si>
+    <t>11612170.00</t>
+  </si>
+  <si>
+    <t>43888731.00</t>
+  </si>
+  <si>
+    <t>20987900.00</t>
+  </si>
+  <si>
+    <t>5328500.00</t>
+  </si>
+  <si>
+    <t>2031700.00</t>
+  </si>
+  <si>
+    <t>1922000.00</t>
+  </si>
+  <si>
+    <t>2641349.00</t>
+  </si>
+  <si>
+    <t>6120100.00</t>
+  </si>
+  <si>
+    <t>7327053.00</t>
+  </si>
+  <si>
+    <t>1539200.00</t>
+  </si>
+  <si>
+    <t>4152549.00</t>
+  </si>
+  <si>
+    <t>968000.00</t>
+  </si>
+  <si>
+    <t>1328600.00</t>
+  </si>
+  <si>
+    <t>40326025.00</t>
+  </si>
+  <si>
+    <t>1710000.00</t>
+  </si>
+  <si>
+    <t>844408034.00</t>
+  </si>
+  <si>
+    <t>6566877.00</t>
+  </si>
+  <si>
+    <t>31254848.00</t>
+  </si>
+  <si>
+    <t>748984102.00</t>
+  </si>
+  <si>
+    <t>2263559750.00</t>
+  </si>
+  <si>
+    <t>247261614.00</t>
+  </si>
+  <si>
+    <t>332333120.00</t>
+  </si>
+  <si>
+    <t>105286324.00</t>
+  </si>
+  <si>
+    <t>478388543.00</t>
+  </si>
+  <si>
+    <t>60019543.00</t>
+  </si>
+  <si>
+    <t>347322783.00</t>
+  </si>
+  <si>
+    <t>150261045.00</t>
+  </si>
+  <si>
+    <t>329500.00</t>
+  </si>
+  <si>
+    <t>45813928.00</t>
+  </si>
+  <si>
+    <t>175791781.00</t>
+  </si>
+  <si>
+    <t>58238347.00</t>
+  </si>
+  <si>
+    <t>65414913.00</t>
+  </si>
+  <si>
+    <t>6550447.00</t>
+  </si>
+  <si>
+    <t>14035102.00</t>
+  </si>
+  <si>
+    <t>2350000.00</t>
+  </si>
+  <si>
+    <t>76568063.00</t>
+  </si>
+  <si>
+    <t>793343.00</t>
+  </si>
+  <si>
+    <t>4517000.00</t>
+  </si>
+  <si>
+    <t>93471025.00</t>
+  </si>
+  <si>
+    <t>330513760.00</t>
+  </si>
+  <si>
+    <t>94085244.00</t>
+  </si>
+  <si>
+    <t>46244692.00</t>
+  </si>
+  <si>
+    <t>10822326.00</t>
+  </si>
+  <si>
+    <t>35235230.00</t>
+  </si>
+  <si>
+    <t>5089773.00</t>
+  </si>
+  <si>
+    <t>96547076.00</t>
+  </si>
+  <si>
+    <t>29748444.00</t>
+  </si>
+  <si>
+    <t>8913852.00</t>
+  </si>
+  <si>
+    <t>28820755.00</t>
+  </si>
+  <si>
+    <t>7455107.00</t>
+  </si>
+  <si>
+    <t>10103771.00</t>
+  </si>
+  <si>
+    <t>287500.00</t>
+  </si>
+  <si>
     <t>9638506.00</t>
   </si>
   <si>
@@ -1307,171 +1472,6 @@
   </si>
   <si>
     <t>429962.00</t>
-  </si>
-  <si>
-    <t>40326025.00</t>
-  </si>
-  <si>
-    <t>1710000.00</t>
-  </si>
-  <si>
-    <t>844408034.00</t>
-  </si>
-  <si>
-    <t>6566877.00</t>
-  </si>
-  <si>
-    <t>31254848.00</t>
-  </si>
-  <si>
-    <t>748984102.00</t>
-  </si>
-  <si>
-    <t>2263559750.00</t>
-  </si>
-  <si>
-    <t>247261614.00</t>
-  </si>
-  <si>
-    <t>332333120.00</t>
-  </si>
-  <si>
-    <t>105286324.00</t>
-  </si>
-  <si>
-    <t>478388543.00</t>
-  </si>
-  <si>
-    <t>60019543.00</t>
-  </si>
-  <si>
-    <t>347322783.00</t>
-  </si>
-  <si>
-    <t>150261045.00</t>
-  </si>
-  <si>
-    <t>329500.00</t>
-  </si>
-  <si>
-    <t>45813928.00</t>
-  </si>
-  <si>
-    <t>175791781.00</t>
-  </si>
-  <si>
-    <t>58238347.00</t>
-  </si>
-  <si>
-    <t>65414913.00</t>
-  </si>
-  <si>
-    <t>6550447.00</t>
-  </si>
-  <si>
-    <t>14035102.00</t>
-  </si>
-  <si>
-    <t>2350000.00</t>
-  </si>
-  <si>
-    <t>76568063.00</t>
-  </si>
-  <si>
-    <t>793343.00</t>
-  </si>
-  <si>
-    <t>4517000.00</t>
-  </si>
-  <si>
-    <t>93471025.00</t>
-  </si>
-  <si>
-    <t>330513760.00</t>
-  </si>
-  <si>
-    <t>94085244.00</t>
-  </si>
-  <si>
-    <t>46244692.00</t>
-  </si>
-  <si>
-    <t>10822326.00</t>
-  </si>
-  <si>
-    <t>35235230.00</t>
-  </si>
-  <si>
-    <t>5089773.00</t>
-  </si>
-  <si>
-    <t>96547076.00</t>
-  </si>
-  <si>
-    <t>29748444.00</t>
-  </si>
-  <si>
-    <t>8913852.00</t>
-  </si>
-  <si>
-    <t>28820755.00</t>
-  </si>
-  <si>
-    <t>7455107.00</t>
-  </si>
-  <si>
-    <t>10103771.00</t>
-  </si>
-  <si>
-    <t>287500.00</t>
-  </si>
-  <si>
-    <t>1230800.00</t>
-  </si>
-  <si>
-    <t>849000.00</t>
-  </si>
-  <si>
-    <t>13498461.00</t>
-  </si>
-  <si>
-    <t>11612170.00</t>
-  </si>
-  <si>
-    <t>43888731.00</t>
-  </si>
-  <si>
-    <t>20987900.00</t>
-  </si>
-  <si>
-    <t>5328500.00</t>
-  </si>
-  <si>
-    <t>2031700.00</t>
-  </si>
-  <si>
-    <t>1922000.00</t>
-  </si>
-  <si>
-    <t>2641349.00</t>
-  </si>
-  <si>
-    <t>6120100.00</t>
-  </si>
-  <si>
-    <t>7327053.00</t>
-  </si>
-  <si>
-    <t>1539200.00</t>
-  </si>
-  <si>
-    <t>4152549.00</t>
-  </si>
-  <si>
-    <t>968000.00</t>
-  </si>
-  <si>
-    <t>1328600.00</t>
   </si>
   <si>
     <t>599000.00</t>
@@ -5885,7 +5885,7 @@
         <v>8</v>
       </c>
       <c r="B132" t="s">
-        <v>66</v>
+        <v>128</v>
       </c>
       <c r="C132" t="s">
         <v>413</v>
@@ -5911,7 +5911,7 @@
         <v>8</v>
       </c>
       <c r="B133" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="C133" t="s">
         <v>414</v>
@@ -5923,10 +5923,10 @@
         <v>647</v>
       </c>
       <c r="F133" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="G133" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="H133" t="s">
         <v>698</v>
@@ -5937,7 +5937,7 @@
         <v>8</v>
       </c>
       <c r="B134" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="C134" t="s">
         <v>415</v>
@@ -5949,10 +5949,10 @@
         <v>647</v>
       </c>
       <c r="F134" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="G134" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="H134" t="s">
         <v>698</v>
@@ -5963,7 +5963,7 @@
         <v>8</v>
       </c>
       <c r="B135" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C135" t="s">
         <v>416</v>
@@ -5975,10 +5975,10 @@
         <v>647</v>
       </c>
       <c r="F135" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="G135" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="H135" t="s">
         <v>698</v>
@@ -5989,7 +5989,7 @@
         <v>8</v>
       </c>
       <c r="B136" t="s">
-        <v>130</v>
+        <v>80</v>
       </c>
       <c r="C136" t="s">
         <v>417</v>
@@ -6001,10 +6001,10 @@
         <v>647</v>
       </c>
       <c r="F136" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G136" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H136" t="s">
         <v>698</v>
@@ -6027,10 +6027,10 @@
         <v>647</v>
       </c>
       <c r="F137" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G137" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H137" t="s">
         <v>698</v>
@@ -6053,10 +6053,10 @@
         <v>647</v>
       </c>
       <c r="F138" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G138" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H138" t="s">
         <v>698</v>
@@ -6079,10 +6079,10 @@
         <v>647</v>
       </c>
       <c r="F139" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G139" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H139" t="s">
         <v>698</v>
@@ -6105,10 +6105,10 @@
         <v>647</v>
       </c>
       <c r="F140" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G140" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H140" t="s">
         <v>698</v>
@@ -6119,7 +6119,7 @@
         <v>8</v>
       </c>
       <c r="B141" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141" t="s">
         <v>422</v>
@@ -6131,10 +6131,10 @@
         <v>647</v>
       </c>
       <c r="F141" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G141" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H141" t="s">
         <v>698</v>
@@ -6145,7 +6145,7 @@
         <v>8</v>
       </c>
       <c r="B142" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="C142" t="s">
         <v>423</v>
@@ -6157,10 +6157,10 @@
         <v>647</v>
       </c>
       <c r="F142" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G142" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H142" t="s">
         <v>698</v>
@@ -6171,7 +6171,7 @@
         <v>8</v>
       </c>
       <c r="B143" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C143" t="s">
         <v>424</v>
@@ -6183,10 +6183,10 @@
         <v>647</v>
       </c>
       <c r="F143" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G143" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H143" t="s">
         <v>698</v>
@@ -6197,7 +6197,7 @@
         <v>8</v>
       </c>
       <c r="B144" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C144" t="s">
         <v>425</v>
@@ -6209,10 +6209,10 @@
         <v>647</v>
       </c>
       <c r="F144" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G144" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H144" t="s">
         <v>698</v>
@@ -6223,7 +6223,7 @@
         <v>8</v>
       </c>
       <c r="B145" t="s">
-        <v>139</v>
+        <v>88</v>
       </c>
       <c r="C145" t="s">
         <v>426</v>
@@ -6235,10 +6235,10 @@
         <v>647</v>
       </c>
       <c r="F145" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G145" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H145" t="s">
         <v>698</v>
@@ -6249,7 +6249,7 @@
         <v>8</v>
       </c>
       <c r="B146" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C146" t="s">
         <v>427</v>
@@ -6261,10 +6261,10 @@
         <v>647</v>
       </c>
       <c r="F146" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G146" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H146" t="s">
         <v>698</v>
@@ -6275,7 +6275,7 @@
         <v>8</v>
       </c>
       <c r="B147" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C147" t="s">
         <v>428</v>
@@ -6287,10 +6287,10 @@
         <v>647</v>
       </c>
       <c r="F147" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G147" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H147" t="s">
         <v>698</v>
@@ -6301,22 +6301,22 @@
         <v>8</v>
       </c>
       <c r="B148" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C148" t="s">
         <v>429</v>
       </c>
       <c r="D148" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E148" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F148" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="G148" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="H148" t="s">
         <v>698</v>
@@ -6333,16 +6333,16 @@
         <v>430</v>
       </c>
       <c r="D149" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="E149" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="F149" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="G149" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="H149" t="s">
         <v>698</v>
@@ -6353,7 +6353,7 @@
         <v>8</v>
       </c>
       <c r="B150" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C150" t="s">
         <v>431</v>
@@ -6365,10 +6365,10 @@
         <v>648</v>
       </c>
       <c r="F150" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G150" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H150" t="s">
         <v>698</v>
@@ -6379,7 +6379,7 @@
         <v>8</v>
       </c>
       <c r="B151" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="C151" t="s">
         <v>432</v>
@@ -6391,10 +6391,10 @@
         <v>648</v>
       </c>
       <c r="F151" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G151" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H151" t="s">
         <v>698</v>
@@ -6405,7 +6405,7 @@
         <v>8</v>
       </c>
       <c r="B152" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C152" t="s">
         <v>433</v>
@@ -6417,10 +6417,10 @@
         <v>648</v>
       </c>
       <c r="F152" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G152" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H152" t="s">
         <v>698</v>
@@ -6431,7 +6431,7 @@
         <v>8</v>
       </c>
       <c r="B153" t="s">
-        <v>115</v>
+        <v>142</v>
       </c>
       <c r="C153" t="s">
         <v>434</v>
@@ -6443,10 +6443,10 @@
         <v>648</v>
       </c>
       <c r="F153" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G153" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H153" t="s">
         <v>698</v>
@@ -6457,7 +6457,7 @@
         <v>8</v>
       </c>
       <c r="B154" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C154" t="s">
         <v>435</v>
@@ -6469,10 +6469,10 @@
         <v>648</v>
       </c>
       <c r="F154" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G154" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H154" t="s">
         <v>698</v>
@@ -6483,7 +6483,7 @@
         <v>8</v>
       </c>
       <c r="B155" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C155" t="s">
         <v>436</v>
@@ -6495,10 +6495,10 @@
         <v>648</v>
       </c>
       <c r="F155" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G155" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H155" t="s">
         <v>698</v>
@@ -6509,7 +6509,7 @@
         <v>8</v>
       </c>
       <c r="B156" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C156" t="s">
         <v>437</v>
@@ -6521,10 +6521,10 @@
         <v>648</v>
       </c>
       <c r="F156" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G156" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H156" t="s">
         <v>698</v>
@@ -6535,7 +6535,7 @@
         <v>8</v>
       </c>
       <c r="B157" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C157" t="s">
         <v>438</v>
@@ -6547,10 +6547,10 @@
         <v>648</v>
       </c>
       <c r="F157" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G157" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H157" t="s">
         <v>698</v>
@@ -6561,7 +6561,7 @@
         <v>8</v>
       </c>
       <c r="B158" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C158" t="s">
         <v>439</v>
@@ -6573,10 +6573,10 @@
         <v>648</v>
       </c>
       <c r="F158" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G158" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H158" t="s">
         <v>698</v>
@@ -6587,7 +6587,7 @@
         <v>8</v>
       </c>
       <c r="B159" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C159" t="s">
         <v>440</v>
@@ -6599,10 +6599,10 @@
         <v>648</v>
       </c>
       <c r="F159" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G159" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H159" t="s">
         <v>698</v>
@@ -6613,7 +6613,7 @@
         <v>8</v>
       </c>
       <c r="B160" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C160" t="s">
         <v>441</v>
@@ -6625,10 +6625,10 @@
         <v>648</v>
       </c>
       <c r="F160" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G160" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H160" t="s">
         <v>698</v>
@@ -6639,7 +6639,7 @@
         <v>8</v>
       </c>
       <c r="B161" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C161" t="s">
         <v>442</v>
@@ -6651,10 +6651,10 @@
         <v>648</v>
       </c>
       <c r="F161" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G161" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H161" t="s">
         <v>698</v>
@@ -6665,7 +6665,7 @@
         <v>8</v>
       </c>
       <c r="B162" t="s">
-        <v>152</v>
+        <v>49</v>
       </c>
       <c r="C162" t="s">
         <v>443</v>
@@ -6677,10 +6677,10 @@
         <v>648</v>
       </c>
       <c r="F162" t="s">
-        <v>670</v>
+        <v>677</v>
       </c>
       <c r="G162" t="s">
-        <v>690</v>
+        <v>697</v>
       </c>
       <c r="H162" t="s">
         <v>698</v>
@@ -6691,7 +6691,7 @@
         <v>8</v>
       </c>
       <c r="B163" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C163" t="s">
         <v>444</v>
@@ -6703,10 +6703,10 @@
         <v>648</v>
       </c>
       <c r="F163" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G163" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H163" t="s">
         <v>698</v>
@@ -6717,7 +6717,7 @@
         <v>8</v>
       </c>
       <c r="B164" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="C164" t="s">
         <v>445</v>
@@ -6729,10 +6729,10 @@
         <v>648</v>
       </c>
       <c r="F164" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="G164" t="s">
-        <v>697</v>
+        <v>693</v>
       </c>
       <c r="H164" t="s">
         <v>698</v>
@@ -6743,7 +6743,7 @@
         <v>8</v>
       </c>
       <c r="B165" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C165" t="s">
         <v>446</v>
@@ -6755,10 +6755,10 @@
         <v>648</v>
       </c>
       <c r="F165" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G165" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H165" t="s">
         <v>698</v>
@@ -6769,7 +6769,7 @@
         <v>8</v>
       </c>
       <c r="B166" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C166" t="s">
         <v>447</v>
@@ -6781,10 +6781,10 @@
         <v>648</v>
       </c>
       <c r="F166" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="G166" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H166" t="s">
         <v>698</v>
@@ -6795,7 +6795,7 @@
         <v>8</v>
       </c>
       <c r="B167" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C167" t="s">
         <v>448</v>
@@ -6807,10 +6807,10 @@
         <v>648</v>
       </c>
       <c r="F167" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G167" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H167" t="s">
         <v>698</v>
@@ -6821,22 +6821,22 @@
         <v>8</v>
       </c>
       <c r="B168" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C168" t="s">
         <v>449</v>
       </c>
       <c r="D168" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E168" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F168" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="G168" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="H168" t="s">
         <v>698</v>
@@ -6847,22 +6847,22 @@
         <v>8</v>
       </c>
       <c r="B169" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C169" t="s">
         <v>450</v>
       </c>
       <c r="D169" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="E169" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="F169" t="s">
-        <v>676</v>
+        <v>659</v>
       </c>
       <c r="G169" t="s">
-        <v>696</v>
+        <v>679</v>
       </c>
       <c r="H169" t="s">
         <v>698</v>
@@ -6873,7 +6873,7 @@
         <v>8</v>
       </c>
       <c r="B170" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C170" t="s">
         <v>451</v>
@@ -6885,10 +6885,10 @@
         <v>649</v>
       </c>
       <c r="F170" t="s">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="G170" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="H170" t="s">
         <v>698</v>
@@ -6899,7 +6899,7 @@
         <v>8</v>
       </c>
       <c r="B171" t="s">
-        <v>30</v>
+        <v>115</v>
       </c>
       <c r="C171" t="s">
         <v>452</v>
@@ -6911,10 +6911,10 @@
         <v>649</v>
       </c>
       <c r="F171" t="s">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="G171" t="s">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="H171" t="s">
         <v>698</v>
@@ -6925,7 +6925,7 @@
         <v>8</v>
       </c>
       <c r="B172" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C172" t="s">
         <v>453</v>
@@ -6937,10 +6937,10 @@
         <v>649</v>
       </c>
       <c r="F172" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="G172" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="H172" t="s">
         <v>698</v>
@@ -6951,7 +6951,7 @@
         <v>8</v>
       </c>
       <c r="B173" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C173" t="s">
         <v>454</v>
@@ -6963,10 +6963,10 @@
         <v>649</v>
       </c>
       <c r="F173" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="G173" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="H173" t="s">
         <v>698</v>
@@ -6977,7 +6977,7 @@
         <v>8</v>
       </c>
       <c r="B174" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C174" t="s">
         <v>455</v>
@@ -6989,10 +6989,10 @@
         <v>649</v>
       </c>
       <c r="F174" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="G174" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="H174" t="s">
         <v>698</v>
@@ -7003,7 +7003,7 @@
         <v>8</v>
       </c>
       <c r="B175" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C175" t="s">
         <v>456</v>
@@ -7015,10 +7015,10 @@
         <v>649</v>
       </c>
       <c r="F175" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="G175" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="H175" t="s">
         <v>698</v>
@@ -7029,7 +7029,7 @@
         <v>8</v>
       </c>
       <c r="B176" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C176" t="s">
         <v>457</v>
@@ -7041,10 +7041,10 @@
         <v>649</v>
       </c>
       <c r="F176" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G176" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="H176" t="s">
         <v>698</v>
@@ -7055,7 +7055,7 @@
         <v>8</v>
       </c>
       <c r="B177" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C177" t="s">
         <v>458</v>
@@ -7067,10 +7067,10 @@
         <v>649</v>
       </c>
       <c r="F177" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="G177" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="H177" t="s">
         <v>698</v>
@@ -7081,7 +7081,7 @@
         <v>8</v>
       </c>
       <c r="B178" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C178" t="s">
         <v>459</v>
@@ -7093,10 +7093,10 @@
         <v>649</v>
       </c>
       <c r="F178" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="G178" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="H178" t="s">
         <v>698</v>
@@ -7107,7 +7107,7 @@
         <v>8</v>
       </c>
       <c r="B179" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C179" t="s">
         <v>460</v>
@@ -7119,10 +7119,10 @@
         <v>649</v>
       </c>
       <c r="F179" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="G179" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="H179" t="s">
         <v>698</v>
@@ -7133,7 +7133,7 @@
         <v>8</v>
       </c>
       <c r="B180" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C180" t="s">
         <v>461</v>
@@ -7145,10 +7145,10 @@
         <v>649</v>
       </c>
       <c r="F180" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="G180" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="H180" t="s">
         <v>698</v>
@@ -7159,7 +7159,7 @@
         <v>8</v>
       </c>
       <c r="B181" t="s">
-        <v>168</v>
+        <v>71</v>
       </c>
       <c r="C181" t="s">
         <v>462</v>
@@ -7171,10 +7171,10 @@
         <v>649</v>
       </c>
       <c r="F181" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="G181" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="H181" t="s">
         <v>698</v>
@@ -7185,7 +7185,7 @@
         <v>8</v>
       </c>
       <c r="B182" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C182" t="s">
         <v>463</v>
@@ -7197,10 +7197,10 @@
         <v>649</v>
       </c>
       <c r="F182" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="G182" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="H182" t="s">
         <v>698</v>
@@ -7211,7 +7211,7 @@
         <v>8</v>
       </c>
       <c r="B183" t="s">
-        <v>71</v>
+        <v>168</v>
       </c>
       <c r="C183" t="s">
         <v>464</v>
@@ -7223,10 +7223,10 @@
         <v>649</v>
       </c>
       <c r="F183" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
       <c r="G183" t="s">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="H183" t="s">
         <v>698</v>
@@ -7237,7 +7237,7 @@
         <v>8</v>
       </c>
       <c r="B184" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C184" t="s">
         <v>465</v>
@@ -7249,10 +7249,10 @@
         <v>649</v>
       </c>
       <c r="F184" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="G184" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="H184" t="s">
         <v>698</v>
@@ -7263,7 +7263,7 @@
         <v>8</v>
       </c>
       <c r="B185" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C185" t="s">
         <v>466</v>
@@ -7275,10 +7275,10 @@
         <v>649</v>
       </c>
       <c r="F185" t="s">
-        <v>673</v>
+        <v>675</v>
       </c>
       <c r="G185" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="H185" t="s">
         <v>698</v>
@@ -7289,7 +7289,7 @@
         <v>8</v>
       </c>
       <c r="B186" t="s">
-        <v>172</v>
+        <v>30</v>
       </c>
       <c r="C186" t="s">
         <v>467</v>
@@ -7301,10 +7301,10 @@
         <v>649</v>
       </c>
       <c r="F186" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="G186" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="H186" t="s">
         <v>698</v>
@@ -7315,22 +7315,22 @@
         <v>8</v>
       </c>
       <c r="B187" t="s">
-        <v>173</v>
+        <v>66</v>
       </c>
       <c r="C187" t="s">
         <v>468</v>
       </c>
       <c r="D187" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E187" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F187" t="s">
-        <v>675</v>
+        <v>658</v>
       </c>
       <c r="G187" t="s">
-        <v>695</v>
+        <v>678</v>
       </c>
       <c r="H187" t="s">
         <v>698</v>
@@ -7341,22 +7341,22 @@
         <v>8</v>
       </c>
       <c r="B188" t="s">
-        <v>30</v>
+        <v>171</v>
       </c>
       <c r="C188" t="s">
         <v>469</v>
       </c>
       <c r="D188" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="E188" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F188" t="s">
-        <v>676</v>
+        <v>660</v>
       </c>
       <c r="G188" t="s">
-        <v>696</v>
+        <v>680</v>
       </c>
       <c r="H188" t="s">
         <v>698</v>
@@ -7367,7 +7367,7 @@
         <v>8</v>
       </c>
       <c r="B189" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="C189" t="s">
         <v>470</v>
@@ -7379,10 +7379,10 @@
         <v>650</v>
       </c>
       <c r="F189" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
       <c r="G189" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
       <c r="H189" t="s">
         <v>698</v>
@@ -7393,7 +7393,7 @@
         <v>8</v>
       </c>
       <c r="B190" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="C190" t="s">
         <v>471</v>
@@ -7405,10 +7405,10 @@
         <v>650</v>
       </c>
       <c r="F190" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
       <c r="G190" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
       <c r="H190" t="s">
         <v>698</v>
@@ -7419,7 +7419,7 @@
         <v>8</v>
       </c>
       <c r="B191" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C191" t="s">
         <v>472</v>
@@ -7431,10 +7431,10 @@
         <v>650</v>
       </c>
       <c r="F191" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="G191" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
       <c r="H191" t="s">
         <v>698</v>
@@ -7445,7 +7445,7 @@
         <v>8</v>
       </c>
       <c r="B192" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C192" t="s">
         <v>473</v>
@@ -7457,10 +7457,10 @@
         <v>650</v>
       </c>
       <c r="F192" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G192" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H192" t="s">
         <v>698</v>
@@ -7471,7 +7471,7 @@
         <v>8</v>
       </c>
       <c r="B193" t="s">
-        <v>80</v>
+        <v>174</v>
       </c>
       <c r="C193" t="s">
         <v>474</v>
@@ -7483,10 +7483,10 @@
         <v>650</v>
       </c>
       <c r="F193" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="G193" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="H193" t="s">
         <v>698</v>
@@ -7497,7 +7497,7 @@
         <v>8</v>
       </c>
       <c r="B194" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C194" t="s">
         <v>475</v>
@@ -7509,10 +7509,10 @@
         <v>650</v>
       </c>
       <c r="F194" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="G194" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="H194" t="s">
         <v>698</v>
@@ -7523,7 +7523,7 @@
         <v>8</v>
       </c>
       <c r="B195" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="C195" t="s">
         <v>476</v>
@@ -7535,10 +7535,10 @@
         <v>650</v>
       </c>
       <c r="F195" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="G195" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="H195" t="s">
         <v>698</v>
@@ -7549,7 +7549,7 @@
         <v>8</v>
       </c>
       <c r="B196" t="s">
-        <v>178</v>
+        <v>132</v>
       </c>
       <c r="C196" t="s">
         <v>477</v>
@@ -7561,10 +7561,10 @@
         <v>650</v>
       </c>
       <c r="F196" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="G196" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="H196" t="s">
         <v>698</v>
@@ -7575,7 +7575,7 @@
         <v>8</v>
       </c>
       <c r="B197" t="s">
-        <v>129</v>
+        <v>177</v>
       </c>
       <c r="C197" t="s">
         <v>478</v>
@@ -7587,10 +7587,10 @@
         <v>650</v>
       </c>
       <c r="F197" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="G197" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H197" t="s">
         <v>698</v>
@@ -7601,7 +7601,7 @@
         <v>8</v>
       </c>
       <c r="B198" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="C198" t="s">
         <v>479</v>
@@ -7613,10 +7613,10 @@
         <v>650</v>
       </c>
       <c r="F198" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="G198" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="H198" t="s">
         <v>698</v>
@@ -7627,7 +7627,7 @@
         <v>8</v>
       </c>
       <c r="B199" t="s">
-        <v>87</v>
+        <v>179</v>
       </c>
       <c r="C199" t="s">
         <v>480</v>
@@ -7639,10 +7639,10 @@
         <v>650</v>
       </c>
       <c r="F199" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="G199" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="H199" t="s">
         <v>698</v>
@@ -7653,7 +7653,7 @@
         <v>8</v>
       </c>
       <c r="B200" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C200" t="s">
         <v>481</v>
@@ -7665,10 +7665,10 @@
         <v>650</v>
       </c>
       <c r="F200" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="G200" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="H200" t="s">
         <v>698</v>
@@ -7679,7 +7679,7 @@
         <v>8</v>
       </c>
       <c r="B201" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C201" t="s">
         <v>482</v>
@@ -7691,10 +7691,10 @@
         <v>650</v>
       </c>
       <c r="F201" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G201" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="H201" t="s">
         <v>698</v>
@@ -7705,7 +7705,7 @@
         <v>8</v>
       </c>
       <c r="B202" t="s">
-        <v>88</v>
+        <v>182</v>
       </c>
       <c r="C202" t="s">
         <v>483</v>
@@ -7717,10 +7717,10 @@
         <v>650</v>
       </c>
       <c r="F202" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="G202" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H202" t="s">
         <v>698</v>
@@ -7731,7 +7731,7 @@
         <v>8</v>
       </c>
       <c r="B203" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
       <c r="C203" t="s">
         <v>484</v>
@@ -7743,10 +7743,10 @@
         <v>650</v>
       </c>
       <c r="F203" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="G203" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H203" t="s">
         <v>698</v>
@@ -7757,7 +7757,7 @@
         <v>8</v>
       </c>
       <c r="B204" t="s">
-        <v>182</v>
+        <v>47</v>
       </c>
       <c r="C204" t="s">
         <v>485</v>
@@ -7769,10 +7769,10 @@
         <v>650</v>
       </c>
       <c r="F204" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="G204" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="H204" t="s">
         <v>698</v>
@@ -7913,7 +7913,7 @@
         <v>8</v>
       </c>
       <c r="B210" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="C210" t="s">
         <v>491</v>
@@ -8017,7 +8017,7 @@
         <v>8</v>
       </c>
       <c r="B214" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="C214" t="s">
         <v>495</v>
@@ -8147,7 +8147,7 @@
         <v>8</v>
       </c>
       <c r="B219" t="s">
-        <v>181</v>
+        <v>137</v>
       </c>
       <c r="C219" t="s">
         <v>500</v>
@@ -8667,7 +8667,7 @@
         <v>8</v>
       </c>
       <c r="B239" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C239" t="s">
         <v>520</v>
@@ -8719,7 +8719,7 @@
         <v>8</v>
       </c>
       <c r="B241" t="s">
-        <v>177</v>
+        <v>131</v>
       </c>
       <c r="C241" t="s">
         <v>522</v>
@@ -9265,7 +9265,7 @@
         <v>8</v>
       </c>
       <c r="B262" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C262" t="s">
         <v>543</v>
@@ -10695,7 +10695,7 @@
         <v>8</v>
       </c>
       <c r="B317" t="s">
-        <v>178</v>
+        <v>133</v>
       </c>
       <c r="C317" t="s">
         <v>598</v>
@@ -10747,7 +10747,7 @@
         <v>8</v>
       </c>
       <c r="B319" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="C319" t="s">
         <v>600</v>
